--- a/_data/ETHUSDT_1d.xlsx
+++ b/_data/ETHUSDT_1d.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20421,6 +20421,126 @@
         <v>252569.4786</v>
       </c>
     </row>
+    <row r="1002" spans="1:6">
+      <c r="A1002" s="2">
+        <v>45532</v>
+      </c>
+      <c r="B1002">
+        <v>2457.33</v>
+      </c>
+      <c r="C1002">
+        <v>2554.6</v>
+      </c>
+      <c r="D1002">
+        <v>2418.8</v>
+      </c>
+      <c r="E1002">
+        <v>2528.33</v>
+      </c>
+      <c r="F1002">
+        <v>451266.634</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6">
+      <c r="A1003" s="2">
+        <v>45533</v>
+      </c>
+      <c r="B1003">
+        <v>2528.33</v>
+      </c>
+      <c r="C1003">
+        <v>2595.4</v>
+      </c>
+      <c r="D1003">
+        <v>2505.88</v>
+      </c>
+      <c r="E1003">
+        <v>2527.61</v>
+      </c>
+      <c r="F1003">
+        <v>237002.9632</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6">
+      <c r="A1004" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B1004">
+        <v>2527.6</v>
+      </c>
+      <c r="C1004">
+        <v>2552.17</v>
+      </c>
+      <c r="D1004">
+        <v>2431.14</v>
+      </c>
+      <c r="E1004">
+        <v>2526</v>
+      </c>
+      <c r="F1004">
+        <v>338379.1941</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6">
+      <c r="A1005" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1005">
+        <v>2525.99</v>
+      </c>
+      <c r="C1005">
+        <v>2533.95</v>
+      </c>
+      <c r="D1005">
+        <v>2491.92</v>
+      </c>
+      <c r="E1005">
+        <v>2513.01</v>
+      </c>
+      <c r="F1005">
+        <v>97946.11470000001</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6">
+      <c r="A1006" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1006">
+        <v>2513</v>
+      </c>
+      <c r="C1006">
+        <v>2516.28</v>
+      </c>
+      <c r="D1006">
+        <v>2400</v>
+      </c>
+      <c r="E1006">
+        <v>2425.72</v>
+      </c>
+      <c r="F1006">
+        <v>223127.776</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6">
+      <c r="A1007" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1007">
+        <v>2425.71</v>
+      </c>
+      <c r="C1007">
+        <v>2539.53</v>
+      </c>
+      <c r="D1007">
+        <v>2423.52</v>
+      </c>
+      <c r="E1007">
+        <v>2520.02</v>
+      </c>
+      <c r="F1007">
+        <v>166758.8379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
